--- a/dates/dates.xlsx
+++ b/dates/dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\koodi\personal\robots\dates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E119EEA-8705-4F68-8D31-0F01CE6A0DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A132AF4-8E0C-4E44-B875-5D63739C9CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20070" yWindow="9340" windowWidth="17110" windowHeight="10860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,36 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>entry</t>
   </si>
   <si>
     <t>timestamp</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>06/17/22 03:00 PM</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>06/17/22 04:00 PM</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>06/17/22 05:00 PM</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>06/17/22 06:00 PM</t>
   </si>
   <si>
     <t>e</t>
@@ -410,7 +386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="A2:E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -425,44 +403,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -475,7 +421,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="E5" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
